--- a/EG3A.xlsx
+++ b/EG3A.xlsx
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t/>
   </si>
   <si>
-    <t>20092520</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 32 M</t>
+    <t>20045422</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD L28</t>
   </si>
   <si>
     <t>EG3A</t>
@@ -28,109 +28,100 @@
     <t>1</t>
   </si>
   <si>
+    <t>PT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20137023</t>
+  </si>
+  <si>
+    <t>SWEETY X-PERT L-38</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
-    <t>20045422</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD L28</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>PT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20136043</t>
-  </si>
-  <si>
-    <t>FITTI PNTS 40S/SMALL</t>
+    <t>20130077</t>
+  </si>
+  <si>
+    <t>BABY HP PNKFONG M-32</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20037098</t>
-  </si>
-  <si>
-    <t>SGM SOYA 1+ VANL 400</t>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20040294</t>
+  </si>
+  <si>
+    <t>SGM EKSPL1+ MADU 900</t>
   </si>
   <si>
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>10006262</t>
-  </si>
-  <si>
-    <t>DNCOW 1+ MDU BOX 750</t>
-  </si>
-  <si>
-    <t>20053295</t>
-  </si>
-  <si>
-    <t>JHNSN COLG HPY/B 100</t>
+    <t>20101825</t>
+  </si>
+  <si>
+    <t>VDRAN XMRT1+ MDU 900</t>
+  </si>
+  <si>
+    <t>10015653</t>
+  </si>
+  <si>
+    <t>DNCOW 1+ VAN BOX 350</t>
+  </si>
+  <si>
+    <t>10012967</t>
+  </si>
+  <si>
+    <t>DNCOW 3+ MDU BOX 350</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>20082403</t>
-  </si>
-  <si>
-    <t>CL TELON LANG PLS150</t>
+    <t>10006260</t>
+  </si>
+  <si>
+    <t>DNCOW FRTGO COK 780</t>
+  </si>
+  <si>
+    <t>20040313</t>
+  </si>
+  <si>
+    <t>MY BABY TELON PLUS30</t>
+  </si>
+  <si>
+    <t>20140679</t>
+  </si>
+  <si>
+    <t>IDM FC.TISSUE 3X80'S</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20016512</t>
+  </si>
+  <si>
+    <t>SUNCO MNYK GORENG 2L</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>RT,(E-6B)</t>
-  </si>
-  <si>
-    <t>20002133</t>
-  </si>
-  <si>
-    <t>IDM CT.BUD BABY R100</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>PT</t>
-  </si>
-  <si>
-    <t>20129837</t>
-  </si>
-  <si>
-    <t>LARIST SPR.GRD 750ML</t>
-  </si>
-  <si>
-    <t>20135849</t>
-  </si>
-  <si>
-    <t>LARIST SMR.BRZ 700ML</t>
-  </si>
-  <si>
-    <t>20043713</t>
-  </si>
-  <si>
-    <t>IDM M/GORENG 2L</t>
-  </si>
-  <si>
-    <t>PT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20131625</t>
-  </si>
-  <si>
-    <t>LARISST FCL.TIS 250S</t>
-  </si>
-  <si>
-    <t>PT,(E-4B)</t>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>10000133</t>
+  </si>
+  <si>
+    <t>KHONG GUAN MN ASS650</t>
   </si>
 </sst>
 </file>
@@ -530,7 +521,7 @@
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
     <col min="4" max="5" width="3" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>16</v>
@@ -664,41 +655,41 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -707,90 +698,90 @@
         <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
